--- a/aircraft/reports/top-manufacturers-over-time.xlsx
+++ b/aircraft/reports/top-manufacturers-over-time.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8574</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5984</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
